--- a/shinobigami/checklist.xlsx
+++ b/shinobigami/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/shinobigami/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/shinobigami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE0E311-9471-134B-A74E-C59D4D96AF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D1199-A8A1-484A-A5BE-B5EED203378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{BDA202C7-F185-934A-90BF-93D988F99756}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{BDA202C7-F185-934A-90BF-93D988F99756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>year</t>
   </si>
@@ -202,6 +202,24 @@
   </si>
   <si>
     <t>wrestling.jpg</t>
+  </si>
+  <si>
+    <t>シノビガミ 流派ブック 比良坂機関</t>
+  </si>
+  <si>
+    <t>hirakasa_organization.jpg</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>Shinobigami School Book Kurama Shinryu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シノビガミ 流派ブック 鞍馬神流 </t>
+  </si>
+  <si>
+    <t>kuruma_shinryu.jpg</t>
   </si>
 </sst>
 </file>
@@ -553,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3289A873-3747-024A-BD5B-84FD9FB75E71}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,6 +904,46 @@
         <v>35</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2021</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2022</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
     <sortCondition ref="A2:A16"/>

--- a/shinobigami/checklist.xlsx
+++ b/shinobigami/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/shinobigami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D1199-A8A1-484A-A5BE-B5EED203378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F001E5B4-AB25-5D4B-BE06-7BD45B700D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{BDA202C7-F185-934A-90BF-93D988F99756}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>year</t>
   </si>
@@ -207,9 +207,6 @@
     <t>シノビガミ 流派ブック 比良坂機関</t>
   </si>
   <si>
-    <t>hirakasa_organization.jpg</t>
-  </si>
-  <si>
     <t>supplement</t>
   </si>
   <si>
@@ -220,6 +217,12 @@
   </si>
   <si>
     <t>kuruma_shinryu.jpg</t>
+  </si>
+  <si>
+    <t>Shinobigami School Book Hirasaka Organization</t>
+  </si>
+  <si>
+    <t>hirasaka_organization.jpg</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -912,16 +915,16 @@
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -929,19 +932,19 @@
         <v>2022</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
